--- a/2x2-model/routing/pseudocode_sim.xlsx
+++ b/2x2-model/routing/pseudocode_sim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lando\Documents\GitHub\IVy-Models\2x2-model\routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13ECEAA9-BDB9-4065-9B75-90B350652001}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3C33D7-217D-4D18-81BE-1B7089A8D2B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B1B37FD-1E15-44AA-A655-38A7353FF929}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>0,0</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
   </si>
 </sst>
 </file>
@@ -163,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -227,28 +248,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -317,28 +316,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -349,51 +417,199 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -874,323 +1090,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBAEEA0-8654-4A48-B572-25F4C86734A9}">
-  <dimension ref="B1:L12"/>
+  <dimension ref="B1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="9" width="4.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="12" width="13.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="18" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="15"/>
+      <c r="N2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="C3" s="35"/>
       <c r="D3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="35"/>
+      <c r="K3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="L3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="N3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="O3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3">
+    <row r="4" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="20"/>
+      <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="10" t="s">
+    <row r="5" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="35"/>
+      <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="L6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="N6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="O6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3">
+      <c r="F7" s="25"/>
+      <c r="G7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="20"/>
+      <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="3">
+      <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="C8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="13" t="b">
+      <c r="L8" s="10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="35"/>
+      <c r="K9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3">
+      <c r="C10" s="21"/>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="20"/>
+      <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+    <row r="11" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+    <row r="12" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="9">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
+  <mergeCells count="22">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4 B7 B10 D4 F4 D7 F7 D10 F10">
+  <conditionalFormatting sqref="B4 B7 B10 E4 E7 E10">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",K4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",L4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",K7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",L7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",K10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",L10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",N4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
     <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",N7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",O7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H4 I5 G7:H7 G10:H10 E5:F5 B5:C5 B8:C8 E8:F8 I8 G3:G4 D3:D4 D6:D7 D9:D10 G9 G6:G7">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="t">
+      <formula>NOT(ISERROR(SEARCH("t",B3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",B3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10 E10 E7 B7 B4 E4">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="dest">
+      <formula>NOT(ISERROR(SEARCH("dest",B4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",H4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",I4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",H7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",I7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",H10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",I10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="K12">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",K4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
+      <formula>NOT(ISERROR(SEARCH("x",K12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",L4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",K7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",L7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5 C3:C4 E3:E4 D5 F5 F8 E6:E7 C6:C7 B8 C9:C10 E9:E10 D8">
+      <formula>NOT(ISERROR(SEARCH("x",L12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="t">
+      <formula>NOT(ISERROR(SEARCH("t",H5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",H5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="t">
-      <formula>NOT(ISERROR(SEARCH("t",B3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("t",H8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="f">
-      <formula>NOT(ISERROR(SEARCH("f",B3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10 D10 F10 F7 D7 B7 B4 D4 F4">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="dest">
-      <formula>NOT(ISERROR(SEARCH("dest",B4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",B4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",H12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("f",H8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="t">
+      <formula>NOT(ISERROR(SEARCH("t",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="t">
+      <formula>NOT(ISERROR(SEARCH("t",G8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",G8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1199,21 +1525,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010057F289FAA81CBD4A9DCAFF5BD7162914" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="110af79c486eff4348f5deec979969bc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="15c5348e-8f1c-4903-8866-f82894488764" xmlns:ns4="b19d44df-d7de-4b37-9846-3920edd8a6f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f53191a40fde9cda1b787622ddbce3e" ns3:_="" ns4:_="">
     <xsd:import namespace="15c5348e-8f1c-4903-8866-f82894488764"/>
@@ -1424,32 +1735,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB5EE40-9ACF-4815-ABB9-5C971EE00A12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b19d44df-d7de-4b37-9846-3920edd8a6f5"/>
-    <ds:schemaRef ds:uri="15c5348e-8f1c-4903-8866-f82894488764"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D6AC8C-BA7B-4E6D-B705-29D5254B62B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78C13612-061C-439D-B408-F539CCD225E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1466,4 +1767,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D6AC8C-BA7B-4E6D-B705-29D5254B62B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB5EE40-9ACF-4815-ABB9-5C971EE00A12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b19d44df-d7de-4b37-9846-3920edd8a6f5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="15c5348e-8f1c-4903-8866-f82894488764"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>